--- a/data/AR/AR2022-elections-analysis.xlsx
+++ b/data/AR/AR2022-elections-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/AR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D44B0F5-F5E7-7D44-821A-5B9323BD1C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C238729D-BEC5-CD4B-B878-9EAC2D1E5E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{B0FA3C88-4D74-7440-A78F-5D09212D40DD}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{3ABF596C-3666-574B-B39D-D7FC39837344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D4B4339D-8FCF-2448-B46D-E64EC5059CDE}" name="AR2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{E3BA2FA2-FBAC-8D41-BBC1-37B971D34DC2}" name="AR2022-elections-analysis" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/AR/AR2022-elections-analysis.csv" comma="1">
       <textFields count="26">
         <textField type="text"/>
@@ -81,106 +81,106 @@
     <t>XX</t>
   </si>
   <si>
-    <t xml:space="preserve"> YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FPTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BV_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BS_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MM'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BIG_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LIL_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R_V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L_Sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Vf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U_Sf</t>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>ELECTION</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>S_V</t>
+  </si>
+  <si>
+    <t>FPTP</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>BS_50</t>
+  </si>
+  <si>
+    <t>BV_50</t>
+  </si>
+  <si>
+    <t>DECL</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>BS_V</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MM'</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>BIG_R</t>
+  </si>
+  <si>
+    <t>LIL_R</t>
+  </si>
+  <si>
+    <t>R_V</t>
+  </si>
+  <si>
+    <t>L_Vf</t>
+  </si>
+  <si>
+    <t>L_Sf</t>
+  </si>
+  <si>
+    <t>U_Vf</t>
+  </si>
+  <si>
+    <t>U_Sf</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AG2018</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>P2020</t>
+  </si>
+  <si>
+    <t>P2016</t>
+  </si>
+  <si>
+    <t>S2020</t>
+  </si>
+  <si>
+    <t>S2016</t>
+  </si>
+  <si>
+    <t>G2018</t>
+  </si>
+  <si>
+    <t>AG2018</t>
   </si>
   <si>
     <t>N/A</t>
@@ -190,6 +190,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -219,9 +223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,7 +246,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AR2022-elections-analysis" connectionId="1" xr16:uid="{CC742FB0-DA34-E94A-AC53-6F27C3E2CA2C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="AR2022-elections-analysis" connectionId="1" xr16:uid="{7442E8BD-76C3-2546-8026-E62EDFB0020B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,24 +545,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65FA39A-6B65-AA4A-AA62-76536BD7CA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CF08DE-2534-7D40-8397-1F2429385A16}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="Y2" sqref="Y2:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -673,58 +679,58 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>2.7515999999999999E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>3.699E-3</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>7.1520000000000004E-3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.19914699999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>-2.2490000000000001E-3</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0.34704600000000002</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>1.1072E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>2.3029999999999999E-3</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>8.7690000000000008E-3</v>
       </c>
       <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>3.3465090000000002</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>0.31509300000000001</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>7.9267000000000004E-2</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>0.33</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>8.4900000000000004E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>0.375</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <v>1.5831999999999999E-2</v>
       </c>
     </row>
@@ -753,58 +759,58 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>2.4272999999999999E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>3.934E-3</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>8.1449999999999995E-3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.20393900000000001</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>-5.0600000000000003E-3</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0.34606300000000001</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>8.8360000000000001E-3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>2.892E-3</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>5.9439999999999996E-3</v>
       </c>
       <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>3.4349370000000001</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>0.65073199999999998</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>0.18054700000000001</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <v>2.2209999999999999E-3</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>0.38</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
         <v>3.0578999999999999E-2</v>
       </c>
     </row>
@@ -833,58 +839,58 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>2.8858999999999999E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>3.604E-3</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>7.2870000000000001E-3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>0.208597</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>-2.5699999999999998E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.351435</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>1.4373E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>1.6019999999999999E-3</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1.2770999999999999E-2</v>
       </c>
       <c r="S4" t="s">
         <v>35</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>3.460372</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>0.34857199999999999</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>8.9553999999999995E-2</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>1.0070000000000001E-3</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>0.38</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <v>1.7455999999999999E-2</v>
       </c>
     </row>
@@ -913,58 +919,58 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1.451E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>2.4269999999999999E-3</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>5.5469999999999998E-3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.16747600000000001</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>-8.6799999999999996E-4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.33277099999999998</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>4.0470000000000002E-3</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>2.967E-3</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>1.08E-3</v>
       </c>
       <c r="S5" t="s">
         <v>35</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>3.0131950000000001</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>0.13648299999999999</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <v>3.0738000000000001E-2</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>0.31</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>1.8799999999999999E-4</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>6.4900000000000001E-3</v>
       </c>
     </row>
@@ -993,58 +999,58 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>4.2372E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1.0068000000000001E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>0.23194899999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>-9.2560000000000003E-3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>0.35493000000000002</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>1.9498000000000001E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>2.611E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>1.6886999999999999E-2</v>
       </c>
       <c r="S6" t="s">
         <v>35</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>3.8860540000000001</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>1.023855</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>0.32265700000000003</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
         <v>5.6290000000000003E-3</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>0.4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="2">
         <v>5.0987999999999999E-2</v>
       </c>
     </row>
@@ -1073,58 +1079,58 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>2.2265E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>2.6619999999999999E-3</v>
       </c>
       <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>4.4019999999999997E-3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>0.154062</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>-1.3999999999999999E-4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>0.326878</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>1.0422000000000001E-2</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>2.2889999999999998E-3</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>8.1329999999999996E-3</v>
       </c>
       <c r="S7" t="s">
         <v>35</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>2.8914780000000002</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>2.6322999999999999E-2</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="2">
         <v>4.895E-3</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="3">
         <v>0.35</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="2">
         <v>1.5590000000000001E-3</v>
       </c>
     </row>
@@ -1153,58 +1159,58 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>3.2403000000000001E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>4.1989999999999996E-3</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>7.3980000000000001E-3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>0.22020799999999999</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>-3.6489999999999999E-3</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>0.35583399999999998</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>1.3374E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>2.6059999999999998E-3</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>1.0769000000000001E-2</v>
       </c>
       <c r="S8" t="s">
         <v>35</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>3.6236449999999998</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>0.48831799999999997</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>0.13205600000000001</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>0.34</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <v>1.3879999999999999E-3</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="2">
         <v>2.2152000000000002E-2</v>
       </c>
     </row>
